--- a/biology/Médecine/Clindamycine/Clindamycine.xlsx
+++ b/biology/Médecine/Clindamycine/Clindamycine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La clindamycine est un antibiotique. C'est un dérivé semi-synthétique de la lincomycine, proche des macrolides. Elle appartient à la famille des lincosamides.
@@ -512,7 +524,9 @@
           <t>Contre-indication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La solution topique de clindamycine est déconseillée :
 aux personnes allergiques aux médicaments contenant de la clindamycine ou de la lincomycine ;
@@ -544,7 +558,9 @@
           <t>Effet indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires les plus fréquents sont la sécheresse et la desquamation de la peau, les crampes, les maux d'estomac, la photosensibilité, la diarrhée et les nausées.
 </t>
@@ -575,7 +591,9 @@
           <t>Spécialités contenant de la Clindamycine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dalacine
 </t>
@@ -606,10 +624,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clindamycine est mise au point en 1966, en modifiant chimiquement la lincomycine naturelle [2]. 
-La clindamycine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clindamycine est mise au point en 1966, en modifiant chimiquement la lincomycine naturelle . 
+La clindamycine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
